--- a/raw_data/chatbot_data_core.xlsx
+++ b/raw_data/chatbot_data_core.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tài khoản" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nạp tiền" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Đăng bài" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Câu hỏi khác" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combine" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hạ tin-Hoàn tiền" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nạp tiền" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Đăng bài" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Câu hỏi khác" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_of_scope" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,18 +452,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mở tài khoản meeyland như thế nào nhỉ?</t>
+          <t>tôi gặp lỗi khi đăng nhập vào tài khoản</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>how_register_account</t>
+          <t>login_failed</t>
         </is>
       </c>
     </row>
@@ -471,12 +472,12 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Để đăng ký tài khoản, bạn truy cập link https://meeyland.com/, chọn "Đăng Nhập" trên góc phải trên cùng của màn hình và chọn "Đăng ký tài khoản" (xem thêm hướng dẫn đăng ký tài khoản) Nếu đã có tài khoản, bạn truy cập link https://meeyland.com/, chọn "Đăng Nhập" trên góc phải trên cùng của màn hình hoặc truy cập link https://www.meeyid.com và chọn "Đăng Nhập"</t>
+          <t>Bạn kiểm tra và nhập đúng Email/Số điện thoại và Mật khẩu trước khi đăng nhập</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>utter_how_register_account</t>
+          <t>utter_login_failed</t>
         </is>
       </c>
     </row>
@@ -484,13 +485,13 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tôi mở rồi nhưng tôi không vào được</t>
+          <t>tôi vẫn không đăng nhập được vào tài khoản</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>how_auth_account</t>
+          <t>login_failed</t>
         </is>
       </c>
     </row>
@@ -499,207 +500,215 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Khi bạn lựa chọn đăng kí tài khoản thành công bằng Email hoặc Số điện thoại, có thể chọn xác thực tài khoản theo 2 cách:
-</t>
+          <t>Bạn kiểm tra và nhập đúng Email/Số điện thoại và Mật khẩu trước khi đăng nhập</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>utter_how_auth_account</t>
+          <t>utter_login_failed</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Đăng ký rồi mà tôi có nhận được mã xác thực đâu nhỉ?</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>lost_otp</t>
+          <t>utter_how_contact_customer_service</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới.</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tôi gặp lỗi khi đăng nhập vào tài khoản</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>utter_lost_otp</t>
+          <t>login_failed</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Được rồi, cảm ơn nhé</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bạn kiểm tra và nhập đúng Email/Số điện thoại và Mật khẩu trước khi đăng nhập</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>utter_login_failed</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vẫn không được</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>utter_thank</t>
+          <t>deny</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Đăng ký tài khoản thì có được lợi gì không</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>benefit_of_meey_account</t>
+          <t>utter_how_contact_customer_service</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Đăng kí tài khoản tại meeyland.com sẽ mang tới cho bạn quyền lợi như sau: • Khi có tài khoản cá nhân, bạn có thể dễ dàng tự thực hiện các giao dịch Bất động sản (mua/bán/thuê/cho thuê/chuyển nhượng) với các thao tác đơn giản, tiện ích và chủ động. • Số lượng tin được đăng lớn: Nếu bạn không đăng kí, bạn sẽ chỉ được đăng tối đa 3 tin còn hiệu lực trên website và không quản lý được tin đăng. Nếu bạn đã đăng kí là thành viên, bạn sẽ được đăng với số lượng tin không hạn chế, đồng thời quản lý tin đăng cũng như các tin đã xem, lịch sử giao dịch dễ dàng. • Meey Land có các gói đăng tin hấp dẫn với các khách hàng đăng kí tài khoản mà chúng tôi dành cho thành viên. • Khách hàng dễ dàng theo dõi tình trạng giao dịch của mình. • Việc đăng kí tài khoản Meey Land rất đơn giản, Quý khách vui lòng tham khảo hướng dẫn TẠI ĐÂY (đính kèm link hướng dẫn đăng kí MeeyID)</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nãy mình đăng ký tài khoản mà mãi không được xác nhận</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>utter_benefit_of_meey_account</t>
+          <t>lost_otp</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Thế đăng ký thế nào?</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới.</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>how_register_account</t>
+          <t>utter_lost_otp</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Để đăng ký tài khoản, bạn truy cập link https://meeyland.com/, chọn "Đăng Nhập" trên góc phải trên cùng của màn hình và chọn "Đăng ký tài khoản" (xem thêm hướng dẫn đăng ký tài khoản) Nếu đã có tài khoản, bạn truy cập link https://meeyland.com/, chọn "Đăng Nhập" trên góc phải trên cùng của màn hình hoặc truy cập link https://www.meeyid.com và chọn "Đăng Nhập"</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>đã chọn gửi lại rồi mà vẫn không được</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>utter_how_register_account</t>
+          <t>deny</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Đăng ký rồi mà cứ báo nhập mã OTP là sao?</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tôi không nhận được mã OTP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>utter_lost_otp</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>oke được rồi</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới. </t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>utter_lost_otp</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tôi thử mấy lần rồi mà vẫn không nhận được mã OTP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>utter_thank</t>
+          <t>lost_otp</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sao tối không đăng nhập được vào tài khoản meeyland nhỉ?</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới. </t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>login_failed</t>
+          <t>utter_lost_otp</t>
         </is>
       </c>
     </row>
@@ -708,30 +717,33 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bạn kiểm tra và nhập đúng Email/Số điện thoại và Mật khẩu trước khi đăng nhập</t>
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>utter_login_failed</t>
+          <t>utter_how_contact_customer_service</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tôi quên mật khẩu rồi, bầy giờ làm thế nào nhỉ?</t>
+          <t>có app ko</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>forgot_password</t>
+          <t>channel_app</t>
         </is>
       </c>
     </row>
@@ -740,12 +752,12 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Trường hợp bạn quên mật khẩu đăng nhập, bạn vui lòng xem hướng dẫn TẠI ĐÂY (đính kèm link hướng dẫn đặt lại mật khẩu).</t>
+          <t>Hiện tại Meeyland có ứng dụng Meey Land được thiết kế phù hợp với tất cả các dòng điện thoại thông minh (Smartphone) sử dụng hệ điều hành iOS và Android, đăng tải thông tin mua bán Bất động sản, cập nhật nhanh diễn biến thông tin, phân tích, nhận định, định hướng thị trường Bất động sản, kiến thức mua bán nhà đất, danh sách các phòng công chứng…</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>utter_forgot_password</t>
+          <t>utter_channel_app</t>
         </is>
       </c>
     </row>
@@ -753,13 +765,13 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>oke cảm ơn</t>
+          <t>down ở đâu</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>how_download_or_view_st</t>
         </is>
       </c>
     </row>
@@ -768,444 +780,14 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
+          <t>Để tải Ứng dụng MeeyLand, truy cập vào link dưới đây nếu:
+• [Phiên bản cho thiết bị IOS](https://apps.apple.com/vn/app/id1520155172) như Apple
+• [Phiên bản cho thiết bị Android](https://play.google.com/store/apps/details?id=com.meeyland.app) như Samsung, LG, Oppo,...</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>utter_thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Không đăng ký có đăng bài được không?</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>benefit_of_meey_account</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>• Tại meeyland.com, bạn hoàn toàn có thể đăng bài với tư cách "tài khoản vãng lai và không cần đăng ký tài khoản". • Tuy nhiên bạn sẽ không thể quản lý bài đăng, lịch sử các tin đã xem, và không thể sử dụng các tính năng khác của website meeyland.com, cũng như các ứng dụng tích hợp với website • Đồng thời, bạn sẽ không được hưởng các ưu đãi của Meey Land dành riêng cho các khách hàng đã có tài khoản.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>utter_benefit_of_meey_account</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>oke cảm ơn</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>utter_thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sửa thông tin cá nhân thế nào?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>how_edit_account_info</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Để quản lí và chỉnh sửa thông tin cá nhân, bạn vui lòng xem hướng dẫn TẠI ĐÂY (đính kèm file hướng dẫn chỉnh sửa thông tin cá nhân)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>utter_how_edit_account_info</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Căm ơn nhé</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>utter_thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>tôi gặp lỗi khi đăng nhập vào tài khoản</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>login_failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Bạn kiểm tra và nhập đúng Email/Số điện thoại và Mật khẩu trước khi đăng nhập</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>utter_login_failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>tôi vẫn không đăng nhập được vào tài khoản</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>login_failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Bạn kiểm tra và nhập đúng Email/Số điện thoại và Mật khẩu trước khi đăng nhập</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>utter_login_failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>utter_contact_customer_service</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>tôi gặp lỗi khi đăng nhập vào tài khoản</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>login_failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Bạn kiểm tra và nhập đúng Email/Số điện thoại và Mật khẩu trước khi đăng nhập</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>utter_login_failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>vẫn không được</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>deny</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>utter_contact_customer_service</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>nãy mình đăng ký tài khoản mà mãi không được xác nhận</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>utter_lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>đã chọn gửi lại rồi mà vẫn không được</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>deny</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>utter_contact_customer_service</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Tôi không nhận được mã OTP</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới. </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>utter_lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Tôi không nhận được mã OTP</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới. </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>utter_lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Tôi thử mấy lần rồi mà vẫn không nhận được mã OTP</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trường hợp bạn không nhận được mã OTP xác nhận, bạn lựa chọn “Gửi lại mã OTP” ngay dưới ô “Xác nhận” để nhận mã mới. </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>utter_lost_otp</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>utter_contact_customer_service</t>
+          <t>utter_how_download_app</t>
         </is>
       </c>
     </row>
@@ -1220,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,13 +840,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cần hoá đơn VAT</t>
+          <t>tôi muốn hạ tin hoàn tiền</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>how_get_VAT_bill</t>
+          <t>request_down_post</t>
         </is>
       </c>
     </row>
@@ -1273,63 +855,54 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vui lòng liên hệ với bộ phận Chăm sóc khách hàng để được hỗ trợ:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"
-Hoặc tới trực tiếp văn phòng Công ty cổ phần tập đoàn Meey Land tại tầng 5, địa chỉ 97-99 Láng Hạ, Quận Đống Đa, Hà Nội.-</t>
+          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>utter_how_get_VAT_bill</t>
+          <t>utter_bot_need_info_for_refund</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>xin chào</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bạn đang dùng gói vip nào</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>greet</t>
+          <t>utter_ask_source_post_package</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>chào bạn</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gói vip 3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>utter_greet</t>
+          <t>enter_data</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>cần hoá đơn VAT</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>how_get_VAT_bill</t>
+          <t>action_set_source_post_package</t>
         </is>
       </c>
     </row>
@@ -1338,35 +911,26 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vui lòng liên hệ với bộ phận Chăm sóc khách hàng để được hỗ trợ:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"
-Hoặc tới trực tiếp văn phòng Công ty cổ phần tập đoàn Meey Land tại tầng 5, địa chỉ 97-99 Láng Hạ, Quận Đống Đa, Hà Nội.-</t>
+          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>utter_how_get_VAT_bill</t>
+          <t>utter_ask_buy_vip_duration</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cho mình hỏi</t>
+          <t>Mình mua 15 ngày</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>user_need_help</t>
+          <t>enter_data</t>
         </is>
       </c>
     </row>
@@ -1375,45 +939,592 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Xin chào, mình là MeeyBot, mình có thể giúp gì cho bạn?</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>utter_greet</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>mình vừa chuyển khoản, muốn lấy hoá đơn VAT</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>how_get_VAT_bill</t>
+          <t>utter_ask_used_vip_duration</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vui lòng liên hệ với bộ phận Chăm sóc khách hàng để được hỗ trợ:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"
-Hoặc tới trực tiếp văn phòng Công ty cổ phần tập đoàn Meey Land tại tầng 5, địa chỉ 97-99 Láng Hạ, Quận Đống Đa, Hà Nội.-</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mời dùng có 3 ngày thôi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>utter_how_get_VAT_bill</t>
+          <t>enter_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Số tiền bạn được hoàn trả là ...</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>action_calculate_down_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>hạ tin hoàn tiền như nào</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>request_down_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bạn đang dùng gói vip nào</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gói vip 3 nhé</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>enter_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>utter_ask_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>29 ngày</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>enter_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Số ngày mua gói tin không hợp lệ. 
+Hiện tại MeeyLand chỉ cung cấp các gói tin 1 ngày, 7 ngày, 15 ngày, 30 ngày và 90 ngày.
+Bạn vui lòng cung cấp lại số ngày bạn đã mua gói tin nhé!</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>utter_request_valid_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>à 30 ngày</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>enter_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17 ngày rồi</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>enter_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>action_calculate_down_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>request_down_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>enter_data{"post_package":"vip 2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>slot{"post_package":"vip 2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>slot{"post_package":"vip 2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>slot{"source_post_package":"vip 2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>slot{"post_package":"None"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>utter_ask_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>slot{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>slot{"buy_vip_duration":"30 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>slot{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>slot{"used_vip_duration":"9 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>action_calculate_down_post</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,6 +1569,47 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rasa-Stories</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -1528,7 +1680,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>next_step</t>
+          <t>request_more</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1884,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>what_VIP_post</t>
+          <t>fee_of_vip_post</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1899,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>utter_what_VIP_post</t>
+          <t>action_fee_of_vip_post</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1987,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>utter_greet</t>
+          <t>action_greet</t>
         </is>
       </c>
     </row>
@@ -1909,7 +2061,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>what_VIP_post</t>
+          <t>fee_of_vip_post</t>
         </is>
       </c>
     </row>
@@ -1924,7 +2076,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>utter_what_VIP_post</t>
+          <t>action_fee_of_vip_post</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2778,1382 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>đăng tin như nào</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>how_create_new_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>các bước abc</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>utter_how_create_new_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>chi tiết hơn đi</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>chi tiết như này</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>utter_how_create_new_post_details</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>chi tiết hơn nữa đi</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>utter_out_of_bot_ability</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>đăng tin như nào</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>how_create_new_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>các bước abc</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>utter_how_create_new_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>affirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vâng ạ</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>bot giúp gì thêm cho anh chị</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>utter_anything_else</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>đăng tin như nào</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>how_create_new_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>các bước abc</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>utter_how_create_new_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>chi tiết hơn đi</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>chi tiết như này</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>utter_how_create_new_post_details</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>affirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vâng ạ</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>bot giúp gì thêm cho anh chị</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>utter_anything_else</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rasa-Stories</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tôi muốn tìm nhà ở Ngọc Hà</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>how_search_info</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bạn....</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>action_how_to_search</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bạn chỉ cho mình cách tìm nhé</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>utter_out_of_bot_ability</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tôi k tải được app</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>error_when_download_app</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bạn vui lòng kiểm tra lại kết nối internet, dung lượng bộ nhớ điện thoại.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>utter_error_when_download_app</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vẫn không được</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>deny</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>liên hệ tổng đài</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tôi k tải được app</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>error_when_download_app</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bạn vui lòng kiểm tra lại kết nối internet, dung lượng bộ nhớ điện thoại.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>utter_error_when_download_app</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tôi vẫn không tải được app</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>error_when_download_app</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>liên hệ tổng đài</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>trợ lý giám đốc là ai</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>forward_to_customer_service</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Vấn đề bạn cần hỏi/yêu cầu ngoài khả năng của bot. Bạn liên hệ bộ phận CSKH của Meeyland để được hỗ trợ nhé!</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>utter_forward_to_customer_service</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
+• Thông tin chung về MeeyLand
+• Đăng ký tài khoản tại meeyland.com
+• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
+• Quản lý tin đăng
+• Cách nạp tiền vào tài khoản ví Meey
+• Thông tin và cách mua các gói tin, up tin
+Rất vui có thể giải đáp cho bạn các câu hỏi về các vấn đề trên.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>xin chào</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>action_greet</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>trợ lý giám đốc là ai</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>forward_to_customer_service</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Vấn đề bạn cần hỏi/yêu cầu ngoài khả năng của bot. Bạn liên hệ bộ phận CSKH của Meeyland để được hỗ trợ nhé!</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>utter_forward_to_customer_service</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
+• Thông tin chung về MeeyLand
+• Đăng ký tài khoản tại meeyland.com
+• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
+• Quản lý tin đăng
+• Cách nạp tiền vào tài khoản ví Meey
+• Thông tin và cách mua các gói tin, up tin
+Rất vui có thể giải đáp cho bạn các câu hỏi về các vấn đề trên.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>xin chào</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>action_greet</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>biết tên mình không</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>chitchat</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>biết chứ ạ, tên bạn hay phết</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>respond_chitchat</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>trợ lý giám đốc là ai</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>forward_to_customer_service</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Vấn đề bạn cần hỏi/yêu cầu ngoài khả năng của bot. Bạn liên hệ bộ phận CSKH của Meeyland để được hỗ trợ nhé!</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>utter_forward_to_customer_service</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
+• Thông tin chung về MeeyLand
+• Đăng ký tài khoản tại meeyland.com
+• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
+• Quản lý tin đăng
+• Cách nạp tiền vào tài khoản ví Meey
+• Thông tin và cách mua các gói tin, up tin
+Rất vui có thể giải đáp cho bạn các câu hỏi về các vấn đề trên.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>làm sao để đầu tư vào meeyland</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>how_invest_to_meeyland</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>about invest + get phone number and email</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>để hỗ trợ bạn tốt về vấn đề này, xin vui lòng cung cấp một số thông tin sau nha.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>utter_suggest_get_info</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rasa-Stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cho mình hỏi cái</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>user_need_help</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Xin chào, mình là MeeyBot. Rất vui khi được hỗ trợ bạn.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chào</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Xin chào, mình là MeeyBot. Rất vui khi được hỗ trợ bạn.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>action_greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Có đấy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>affirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Vâng ạ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chào</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Xin chào, mình là MeeyBot. Rất vui khi được hỗ trợ bạn.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>action_greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cho mình hỏi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>user_need_help</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vâng ạ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bạn có thắc mắc gì nữa không ạ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>utter_anything_else</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>deny</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rất vui khi được phục vụ bạn</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>utter_thank</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>chào bot</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Xin chào, mình là MeeyBot. Mình có thể giúp gì cho bạn ạ?</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>action_greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>có đấy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>affirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vâng ạ</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cho mình hỏi cái này</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>user_need_help</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vâng ạ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>chào bot</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Xin chào, mình là MeeyBot. Mình có thể giúp gì cho bạn ạ?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>action_greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>chào bot</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vâng ạ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>action_greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>chào bot</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>greet</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng các câu hỏi về tính năng, định hướng của MeeyLand, về các vấn đề khi đăng ký tài khoản, đăng tin trên MeeyLand, nạp tiền, mua các gói VIP,... </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cần học hỏi thêm</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>bot_need_learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>mình sẽ học hỏi thêm ạ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>utter_keep_learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>dốt lắm</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>react_negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>mình sẽ học hỏi thêm ạ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>utter_keep_learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>giải thích rõ đi bot</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>mình là meeybot của meeyland, có thể giúp bạn các vấn đề xung quanh ....</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2675,13 +4197,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liên hệ tổng đài như thế nào?</t>
+          <t>bạn biết bơi không</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>how_contact_customer_service</t>
+          <t>out_of_scope</t>
         </is>
       </c>
     </row>
@@ -2690,96 +4212,86 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
+          <t>xin lỗi việc này ngoài phạm vi của bot.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>utter_contact_customer_service</t>
+          <t>respond_out_of_scope</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mình là MeeyBot của Meeyland, bạn có thể hỏi m....</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>utter_ask_whatspossible</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Xin chào</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Xin chào, mình là MeeyBot.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>utter_greet</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tôi cần liên hệ hỗ trợ của bộ phận chăm sóc khách hàng</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>xin chào</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>how_contact_customer_service</t>
+          <t>action_greet</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bạn biết bơi không</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>utter_contact_customer_service</t>
+          <t>out_of_scope</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>tôi muốn tìm nhà ở Ngọc Hà</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>xin lỗi việc này ngoài phạm vi của bot.</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>how_search_info</t>
+          <t>respond_out_of_scope</t>
         </is>
       </c>
     </row>
@@ -2788,26 +4300,30 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bạn....</t>
+          <t>mình là MeeyBot của Meeyland, bạn có thể hỏi m....</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>utter_how_search_info</t>
+          <t>utter_ask_whatspossible</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bạn chỉ cho mình cách tìm nhé</t>
+          <t>chào bạn</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>request_explain_more</t>
+          <t>greet</t>
         </is>
       </c>
     </row>
@@ -2816,33 +4332,26 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
+          <t>xin chào</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>utter_contact_customer_service</t>
+          <t>action_greet</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tôi k tải được app</t>
+          <t>gói vip1 50 ngày được không?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>error_when_download_app</t>
+          <t>enter_data</t>
         </is>
       </c>
     </row>
@@ -2851,118 +4360,110 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bạn vui lòng kiểm tra lại kết nối internet, dung lượng bộ nhớ điện thoại.</t>
+          <t>xin lỗi mình k hiểu ý bạn.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>utter_error_when_download_app</t>
+          <t>utter_not_sure</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>vẫn không được</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>deny</t>
+          <t>utter_ask_whatspossible</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>liên hệ tổng đài</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>utter_contact_customer_service</t>
+          <t>greet</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>tôi k tải được app</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>xin chào</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>error_when_download_app</t>
+          <t>action_greet</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bạn vui lòng kiểm tra lại kết nối internet, dung lượng bộ nhớ điện thoại.</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>biết tên mình không</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>utter_error_when_download_app</t>
+          <t>chitchat</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>tôi vẫn không tải được app</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>biết chứ ạ, tên bạn hay phết</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>error_when_download_app</t>
+          <t>respond_chitchat</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>liên hệ tổng đài</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bạn biết bơi không</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>utter_contact_customer_service</t>
+          <t>out_of_scope</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>giải thích rõ đi</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>xin lỗi việc này ngoài phạm vi của bot.</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>request_explain_more</t>
+          <t>respond_out_of_scope</t>
         </is>
       </c>
     </row>
@@ -2971,395 +4472,12 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>liên hệ tổng đài</t>
+          <t>mình là MeeyBot của Meeyland, bạn có thể hỏi m....</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>utter_contact_customer_service</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Bot</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Rasa-Stories</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cho mình hỏi cái</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>user_need_help</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Xin chào, mình là MeeyBot. Rất vui khi được hỗ trợ bạn.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>utter_greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chào</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Xin chào, mình là MeeyBot. Rất vui khi được hỗ trợ bạn.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>utter_greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Có đấy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>affirm</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Vâng ạ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>utter_confirm</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chào</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Xin chào, mình là MeeyBot. Rất vui khi được hỗ trợ bạn.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>utter_greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>cho mình hỏi</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>user_need_help</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Vâng ạ</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>utter_confirm</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>STT</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Bot</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Rasa-Stories</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Xin chào</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chào bạn mình là Meeybot, mình có thể giúp gì cho bạn</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>utter_greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>cho hỏi đăng ký tài khoản như nào</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>how_register_account</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"Để đăng ký tài khoản, bạn truy cập link https://meeyland.com/, chọn ""Đăng Nhập"" trên góc phải trên cùng của màn hình và chọn ""Đăng ký tài khoản"" (xem thêm hướng dẫn đăng ký tài khoản)
-Nếu đã có tài khoản, bạn truy cập link https://meeyland.com/, chọn ""Đăng Nhập"" trên góc phải trên cùng của màn hình hoặc truy cập link https://www.meeyid.com và chọn ""Đăng Nhập"""</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>utter_how_register_account</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>okee, dc rồi nhé, thank</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>utter_thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chào bot</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Chào bạn mình là Meeybot, mình có thể giúp gì cho bạn</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>utter_greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cảm ơn</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>utter_thank</t>
+          <t>utter_ask_whatspossible</t>
         </is>
       </c>
     </row>

--- a/raw_data/chatbot_data_core.xlsx
+++ b/raw_data/chatbot_data_core.xlsx
@@ -9,11 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tài khoản" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hạ tin-Hoàn tiền" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nạp tiền" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Đăng bài" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Câu hỏi khác" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_of_scope" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meey Invest" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nạp tiền" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Đăng bài" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Câu hỏi khác" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_of_scope" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,7 +912,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
+          <t>Số ngày mua ban đầu là bao nhiêu?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1005,20 +1006,16 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hạ tin hoàn tiền như nào</t>
+          <t>cảm ơn</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>request_down_post</t>
+          <t>thank</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1024,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
+          <t>Rất vui khi được phục vụ bạn</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
+          <t>utter_thank</t>
         </is>
       </c>
     </row>
@@ -1041,26 +1038,30 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bạn đang dùng gói vip nào</t>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
+          <t>utter_anything_else</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gói vip 3 nhé</t>
+          <t>tôi muốn hạ tin hoàn tiền</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>enter_data</t>
+          <t>request_down_post</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1070,12 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
+          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
+          <t>utter_bot_need_info_for_refund</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1084,12 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
+          <t>Bạn đang dùng gói vip nào</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>utter_ask_buy_vip_duration</t>
+          <t>utter_ask_source_post_package</t>
         </is>
       </c>
     </row>
@@ -1096,13 +1097,13 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29 ngày</t>
+          <t>thôi ko cần đâu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>enter_data</t>
+          <t>deny</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1112,12 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
+          <t>Vâng ạ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
+          <t>utter_confirm</t>
         </is>
       </c>
     </row>
@@ -1125,28 +1126,30 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Số ngày mua gói tin không hợp lệ. 
-Hiện tại MeeyLand chỉ cung cấp các gói tin 1 ngày, 7 ngày, 15 ngày, 30 ngày và 90 ngày.
-Bạn vui lòng cung cấp lại số ngày bạn đã mua gói tin nhé!</t>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>utter_request_valid_buy_vip_duration</t>
+          <t>utter_anything_else</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>à 30 ngày</t>
+          <t>hạ tin hoàn tiền như nào</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>enter_data</t>
+          <t>request_down_post</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1158,12 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
+          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
+          <t>utter_bot_need_info_for_refund</t>
         </is>
       </c>
     </row>
@@ -1169,12 +1172,12 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
+          <t>Bạn đang dùng gói vip nào</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>utter_ask_used_vip_duration</t>
+          <t>utter_ask_source_post_package</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1185,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17 ngày rồi</t>
+          <t>gói vip 3 nhé</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1197,40 +1200,40 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>action_set_used_vip_duration</t>
+          <t>action_set_source_post_package</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>action_set_used_vip_duration</t>
+          <t>action_set_source_post_package</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>action_calculate_down_post</t>
+          <t>utter_ask_buy_vip_duration</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>29 ngày</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>request_down_post</t>
+          <t>enter_data</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1242,12 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1256,14 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Số ngày mua gói tin không hợp lệ. 
+Hiện tại MeeyLand chỉ cung cấp các gói tin 1 ngày, 7 ngày, 15 ngày, 30 ngày và 90 ngày.
+Bạn vui lòng cung cấp lại số ngày bạn đã mua gói tin nhé!</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
+          <t>utter_request_valid_buy_vip_duration</t>
         </is>
       </c>
     </row>
@@ -1266,13 +1271,13 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>à 30 ngày</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>enter_data{"post_package":"vip 2"}</t>
+          <t>enter_data</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1286,12 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>slot{"post_package":"vip 2"}</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
     </row>
@@ -1295,26 +1300,26 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>slot{"post_package":"vip 2"}</t>
+          <t>utter_ask_used_vip_duration</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17 ngày rồi</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
+          <t>enter_data</t>
         </is>
       </c>
     </row>
@@ -1323,54 +1328,54 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_set_used_vip_duration</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>slot{"source_post_package":"vip 2"}</t>
+          <t>action_set_used_vip_duration</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>slot{"post_package":"None"}</t>
+          <t>action_calculate_down_post</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>utter_ask_buy_vip_duration</t>
+          <t>request_down_post</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>enter_data{"duration":"30 ngày"}</t>
+          <t>utter_bot_need_info_for_refund</t>
         </is>
       </c>
     </row>
@@ -1384,21 +1389,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>slot{"duration":"30 ngày"}</t>
+          <t>utter_ask_source_post_package</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
+          <t>enter_data{"post_package":"vip 3"}</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1417,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>slot{"buy_vip_duration":"30 ngày"}</t>
+          <t>slot{"post_package":"vip 3"}</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1431,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>slot{"duration":"None"}</t>
+          <t>action_set_source_post_package</t>
         </is>
       </c>
     </row>
@@ -1440,21 +1445,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>utter_ask_used_vip_duration</t>
+          <t>slot{"source_post_package":"vip 3"}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>enter_data{"duration":"9 ngày"}</t>
+          <t>slot{"post_package":"None"}</t>
         </is>
       </c>
     </row>
@@ -1468,21 +1473,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>slot{"duration":"9 ngày"}</t>
+          <t>utter_ask_buy_vip_duration</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>action_set_used_vip_duration</t>
+          <t>enter_data{"duration":"30 ngày"}</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1501,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>slot{"used_vip_duration":"9 ngày"}</t>
+          <t>slot{"duration":"30 ngày"}</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1515,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>slot{"duration":"None"}</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
     </row>
@@ -1523,6 +1528,118 @@
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>slot{"buy_vip_duration":"30 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>slot{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>slot{"used_vip_duration":"9 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>action_calculate_down_post</t>
         </is>
@@ -1534,6 +1651,289 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rasa-Stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>làm sao để đầu tư vào meeyland</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>how_invest_to_meeyland</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hiện tại, MeeyBot chưa hỗ trợ các vấn đề liên quan đến đầu tư vào MeeyLand, bạn vui lòng liên hệ bộ phận hỗ trợ trên trang web [hoangmaichung.com](https://hoangmaichung.com) hoặc gọi tới số điện thoại CSKH 1900.23.23.16 trong khung thời gian từ 8h30-22h00 hàng ngày nhé.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>utter_invest_customer_service</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bạn có thể để lại email hoặc số điện thoại, mình sẽ nhờ bộ phận chăm sóc khách hàng liên hệ trực tiếp để hỗ trợ bạn.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>utter_suggest_get_info</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>manhdh@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>enter_data</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>action_forward_customer_service</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>action_forward_customer_service</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cảm ơn bạn đã cung cấp thông tin, bộ phận CSKH của MeeyLand sẽ liên hệ hỗ trợ bạn nha!</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>utter_thks_n_forward_info_to_customer_service</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>utter_anything_else</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>làm sao để đầu tư vào meeyland</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>how_invest_to_meeyland</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hiện tại, MeeyBot chưa hỗ trợ các vấn đề liên quan đến đầu tư vào MeeyLand, bạn vui lòng liên hệ bộ phận hỗ trợ trên trang web [hoangmaichung.com](https://hoangmaichung.com) hoặc gọi tới số điện thoại CSKH 1900.23.23.16 trong khung thời gian từ 8h30-22h00 hàng ngày nhé.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>utter_invest_customer_service</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bạn có thể để lại email hoặc số điện thoại, mình sẽ nhờ bộ phận chăm sóc khách hàng liên hệ trực tiếp để hỗ trợ bạn.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>utter_suggest_get_info</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>thôi không cần đâu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>deny</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vâng ạ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>utter_anything_else</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>thôi không cần đâu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>deny</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rất vui khi được phục vụ bạn</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>utter_thank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1574,7 +1974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3064,13 +3464,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,7 +3499,6 @@
           <t>Rasa-Stories</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3118,7 +3517,6 @@
           <t>how_search_info</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -3133,7 +3531,6 @@
           <t>action_how_to_search</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -3148,7 +3545,6 @@
           <t>request_more</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -3163,7 +3559,6 @@
           <t>utter_out_of_bot_ability</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -3181,7 +3576,6 @@
           <t>utter_how_contact_customer_service</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3200,7 +3594,6 @@
           <t>error_when_download_app</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -3215,7 +3608,6 @@
           <t>utter_error_when_download_app</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -3230,7 +3622,6 @@
           <t>deny</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -3245,7 +3636,6 @@
           <t>utter_how_contact_customer_service</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3264,7 +3654,6 @@
           <t>error_when_download_app</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -3279,7 +3668,6 @@
           <t>utter_error_when_download_app</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -3294,7 +3682,6 @@
           <t>error_when_download_app</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -3309,7 +3696,6 @@
           <t>utter_how_contact_customer_service</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3328,7 +3714,6 @@
           <t>forward_to_customer_service</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -3343,7 +3728,6 @@
           <t>utter_forward_to_customer_service</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -3365,7 +3749,6 @@
           <t>utter_ask_whatspossible</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3384,7 +3767,6 @@
           <t>greet</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -3399,7 +3781,6 @@
           <t>action_greet</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -3414,7 +3795,6 @@
           <t>forward_to_customer_service</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -3429,7 +3809,6 @@
           <t>utter_forward_to_customer_service</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -3451,7 +3830,6 @@
           <t>utter_ask_whatspossible</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3470,7 +3848,6 @@
           <t>greet</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -3485,7 +3862,6 @@
           <t>action_greet</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -3500,7 +3876,6 @@
           <t>chitchat</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -3515,7 +3890,6 @@
           <t>respond_chitchat</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -3530,7 +3904,6 @@
           <t>forward_to_customer_service</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -3545,7 +3918,6 @@
           <t>utter_forward_to_customer_service</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -3567,52 +3939,13 @@
           <t>utter_ask_whatspossible</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>làm sao để đầu tư vào meeyland</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>how_invest_to_meeyland</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>about invest + get phone number and email</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>để hỗ trợ bạn tốt về vấn đề này, xin vui lòng cung cấp một số thông tin sau nha.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>utter_suggest_get_info</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3676,7 +4009,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>utter_ask_whatspossible</t>
+          <t>action_greet</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/raw_data/chatbot_data_core.xlsx
+++ b/raw_data/chatbot_data_core.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Câu hỏi khác" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_of_scope" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chitchat" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -803,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,6 +833,7 @@
           <t>Rasa-Stories</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -850,13 +852,15 @@
           <t>request_down_post</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -864,6 +868,7 @@
           <t>utter_bot_need_info_for_refund</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -878,6 +883,7 @@
           <t>utter_ask_source_post_package</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -892,6 +898,7 @@
           <t>enter_data</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -906,6 +913,7 @@
           <t>action_set_source_post_package</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -920,6 +928,7 @@
           <t>utter_ask_buy_vip_duration</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -934,6 +943,7 @@
           <t>enter_data</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -948,6 +958,7 @@
           <t>action_set_buy_vip_duration</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -962,6 +973,7 @@
           <t>utter_ask_used_vip_duration</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -976,6 +988,7 @@
           <t>enter_data</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -990,6 +1003,7 @@
           <t>action_set_used_vip_duration</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1004,48 +1018,55 @@
           <t>action_calculate_down_post</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cảm ơn</t>
+          <t>cách tính chi tiết như nào thế</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>thank</t>
-        </is>
-      </c>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rất vui khi được phục vụ bạn</t>
+          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>utter_thank</t>
-        </is>
-      </c>
+          <t>utter_out_of_bot_ability</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>utter_anything_else</t>
-        </is>
-      </c>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1064,13 +1085,15 @@
           <t>request_down_post</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1078,6 +1101,7 @@
           <t>utter_bot_need_info_for_refund</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1092,6 +1116,7 @@
           <t>utter_ask_source_post_package</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1106,6 +1131,7 @@
           <t>deny</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1120,6 +1146,7 @@
           <t>utter_confirm</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1134,6 +1161,7 @@
           <t>utter_anything_else</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1143,7 +1171,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>hạ tin hoàn tiền như nào</t>
+          <t>tôi muốn hạ tin hoàn tiền</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1152,13 +1180,15 @@
           <t>request_down_post</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Để giúp bạn tính toán số tiền được hoàn trả, bot cần một số thông tin.</t>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1166,6 +1196,7 @@
           <t>utter_bot_need_info_for_refund</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1180,98 +1211,109 @@
           <t>utter_ask_source_post_package</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gói vip 3 nhé</t>
+          <t>bot làm giúp luôn đi</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>enter_data</t>
-        </is>
-      </c>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
+          <t>Bạn đang dùng gói vip nào</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29 ngày</t>
+          <t>hạ tin hoàn tiền như nào</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>enter_data</t>
-        </is>
-      </c>
+          <t>request_down_post</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Số ngày mua gói tin không hợp lệ. 
-Hiện tại MeeyLand chỉ cung cấp các gói tin 1 ngày, 7 ngày, 15 ngày, 30 ngày và 90 ngày.
-Bạn vui lòng cung cấp lại số ngày bạn đã mua gói tin nhé!</t>
+          <t>Bạn đang dùng gói vip nào</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>utter_request_valid_buy_vip_duration</t>
-        </is>
-      </c>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>à 30 ngày</t>
+          <t>gói vip 3 nhé</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1280,40 +1322,43 @@
           <t>enter_data</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
+          <t>action_set_source_post_package</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
+          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>utter_ask_used_vip_duration</t>
-        </is>
-      </c>
+          <t>utter_ask_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17 ngày rồi</t>
+          <t>29 ngày</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1322,328 +1367,1518 @@
           <t>enter_data</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>action_set_used_vip_duration</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Số ngày mua gói tin không hợp lệ. 
+Hiện tại MeeyLand chỉ cung cấp các gói tin 1 ngày, 7 ngày, 15 ngày, 30 ngày và 90 ngày.
+Bạn vui lòng cung cấp lại số ngày bạn đã mua gói tin nhé!</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>action_calculate_down_post</t>
-        </is>
-      </c>
+          <t>utter_request_valid_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>à 30 ngày</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>request_down_post</t>
-        </is>
-      </c>
+          <t>enter_data</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
+          <t>utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>17 ngày rồi</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>enter_data{"post_package":"vip 3"}</t>
-        </is>
-      </c>
+          <t>enter_data</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_set_used_vip_duration</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>slot{"post_package":"vip 3"}</t>
-        </is>
-      </c>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_calculate_down_post</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
+          <t>action_calculate_down_post</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cách tính chi tiết như nào thế</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>slot{"source_post_package":"vip 3"}</t>
-        </is>
-      </c>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>slot{"post_package":"None"}</t>
-        </is>
-      </c>
+          <t>utter_out_of_bot_ability</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Bạn liên hệ để được hỗ trợ nâng cao:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>hoàn tiền không khi tôi hạ tin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>enter_data{"duration":"30 ngày"}</t>
-        </is>
-      </c>
+          <t>is_refund_after_putdown_post</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Chính sách của MeeyLand hiện tại cho phép hoàn tiền một phần/toàn bộ, tùy theo chính sách của MeeyLand từng thời kỳ bạn nhé!</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>slot{"duration":"30 ngày"}</t>
-        </is>
-      </c>
+          <t>utter_is_refund_after_putdown_post</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Bạn đang dùng gói vip nào</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>slot{"buy_vip_duration":"30 ngày"}</t>
-        </is>
-      </c>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>gói vip 3</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>slot{"duration":"None"}</t>
-        </is>
-      </c>
+          <t>enter_data</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_set_source_post_package</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>utter_ask_used_vip_duration</t>
-        </is>
-      </c>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Số ngày mua ban đầu là bao nhiêu?</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>enter_data{"duration":"9 ngày"}</t>
-        </is>
-      </c>
+          <t>utter_ask_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mình mua 15 ngày</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>slot{"duration":"9 ngày"}</t>
-        </is>
-      </c>
+          <t>enter_data</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>action_set_buy_vip_duration</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>slot{"used_vip_duration":"9 ngày"}</t>
-        </is>
-      </c>
+          <t>utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>mời dùng có 3 ngày thôi</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>slot{"duration":"None"}</t>
-        </is>
-      </c>
+          <t>enter_data</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Số tiền bạn được hoàn trả là ...</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>action_calculate_down_post</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cách tính chi tiết như nào thế</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>utter_out_of_bot_ability</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ để được hỗ trợ nâng cao:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>hoàn tiền không khi tôi hạ tin</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>is_refund_after_putdown_post</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Chính sách của MeeyLand hiện tại cho phép hoàn tiền một phần/toàn bộ, tùy theo chính sách của MeeyLand từng thời kỳ bạn nhé!</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>utter_is_refund_after_putdown_post</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Bạn đang dùng gói vip nào</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>thôi ko cần đâu</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>deny</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vâng ạ</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>utter_confirm</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>utter_anything_else</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>hoàn tiền không khi tôi hạ tin</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>is_refund_after_putdown_post</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Chính sách của MeeyLand hiện tại cho phép hoàn tiền một phần/toàn bộ, tùy theo chính sách của MeeyLand từng thời kỳ bạn nhé!</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>utter_is_refund_after_putdown_post</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Bạn đang dùng gói vip nào</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>bot làm giúp luôn đi</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Bạn đang dùng gói vip nào</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Hạn tin hoàn tiền</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>request_down_post</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Bạn dùng gói vip nào</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>vip 3 nhé</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>enter_data{"post_package":"vip 3"}</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>bot</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>slot{"post_package":"vip 3"}</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>set buy slot</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>slot{"source_post_package":"vip 3"}</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>slot{"post_package":"None"}</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Số ngày mua ban đầu là bao nhiêu</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>utter_ask_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>30 ngày nhé</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>slot{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>action set</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>slot{"buy_vip_duration":"30 ngày"}</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Bạn đã dùng trong bao lâu</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>9 ngày rồi</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>slot{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>action set</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>slot{"used_vip_duration":"9 ngày"}</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>action utter</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>action_calculate_down_post</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cách tính chi tiết như nào thế</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>utter_out_of_bot_ability</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ để được hỗ trợ nâng cao:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>hạ tin hoàn tiền</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>request_down_post</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>* request_down_post</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
+Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>- utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bạn đang dùng vip mấy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>utter_ask_source_post_package</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>- utter_ask_source_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>gói vip 1 nhé</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>enter_data{"post_package":"vip 1"}</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>* enter_data{"post_package":"vip 3"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>slot{"post_package":"vip 1"}</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>- slot{"post_package":"vip 3"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>set_post_package</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>action_set_source_post_package</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>- action_set_source_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>slot{"source_post_package":"vip 1"}</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>- slot{"source_post_package":"vip 3"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>slot{"post_package":"None"}</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>- slot{"post_package":"None"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Số ngày ban đầu bạn đã mua?</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>utter_ask_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>- utter_ask_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>29 ngày</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"29 ngày"}</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>* enter_data{"duration":"29 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>slot{"duration":"29 ngày"}</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>- slot{"duration":"29 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>set buy post_package</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>- action_set_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Không hợp lệ, nhập lại</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>utter_request_valid_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>- utter_request_valid_buy_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>à 30 ngày</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>* enter_data{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sloot</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>slot{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>- slot{"duration":"30 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>set buy post_package</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>action_set_buy_vip_duration</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>- action_set_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>slot{"buy_vip_duration":"30 ngày"}</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>- slot{"used_vip_duration":"30 ngày"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>- slot{"duration":"None"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Bạn đã dùng được bao nhiêu ngày</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>- utter_ask_used_vip_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9 ngày rồi</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>enter_data{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>slot{"duration":"9 ngày"}</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>action set used vip post</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>action_set_used_vip_duration</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>slot{"used_vip_duration":"9 ngày"}</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>slot</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>slot{"duration":"None"}</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>action utter</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>action_calculate_down_post</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>cách tính chi tiết như nào thế</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>utter_out_of_bot_ability</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Bạn liên hệ để được hỗ trợ nâng cao:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+• Chat với "Chăm sóc khách hàng"</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>utter_how_contact_customer_service</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1656,7 +2891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,7 +2958,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bạn có thể để lại email hoặc số điện thoại, mình sẽ nhờ bộ phận chăm sóc khách hàng liên hệ trực tiếp để hỗ trợ bạn.</t>
+          <t>Bạn có thể để lại email hoặc số điện thoại, mình sẽ chuyển thông tin tới bộ phận chăm sóc khách hàng liên hệ trực tiếp để hỗ trợ bạn.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1751,12 +2986,12 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>action_forward_customer_service</t>
+          <t>action_check_email_n_phone</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>action_forward_customer_service</t>
+          <t>action_check_email_n_phone</t>
         </is>
       </c>
     </row>
@@ -1765,12 +3000,12 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cảm ơn bạn đã cung cấp thông tin, bộ phận CSKH của MeeyLand sẽ liên hệ hỗ trợ bạn nha!</t>
+          <t>action_forward_customer_service</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>utter_thks_n_forward_info_to_customer_service</t>
+          <t>action_forward_customer_service</t>
         </is>
       </c>
     </row>
@@ -1779,54 +3014,86 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ.</t>
+          <t>Cảm ơn bạn đã cung cấp thông tin, bộ phận CSKH của MeeyLand sẽ liên hệ hỗ trợ bạn nha!</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>utter_anything_else</t>
+          <t>utter_thks_n_forward_info_to_customer_service</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>utter_anything_else</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>làm sao để đầu tư vào meeyland</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>how_invest_to_meeyland</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hiện tại, MeeyBot chưa hỗ trợ các vấn đề liên quan đến đầu tư vào MeeyLand, bạn vui lòng liên hệ bộ phận hỗ trợ trên trang web [hoangmaichung.com](https://hoangmaichung.com) hoặc gọi tới số điện thoại CSKH 1900.23.23.16 trong khung thời gian từ 8h30-22h00 hàng ngày nhé.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>utter_invest_customer_service</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bạn có thể để lại email hoặc số điện thoại, mình sẽ chuyển thông tin tới bộ phận chăm sóc khách hàng liên hệ trực tiếp để hỗ trợ bạn.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>utter_suggest_get_info</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>làm sao để đầu tư vào meeyland</t>
+          <t>thôi không cần đâu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>how_invest_to_meeyland</t>
+          <t>deny</t>
         </is>
       </c>
     </row>
@@ -1835,12 +3102,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hiện tại, MeeyBot chưa hỗ trợ các vấn đề liên quan đến đầu tư vào MeeyLand, bạn vui lòng liên hệ bộ phận hỗ trợ trên trang web [hoangmaichung.com](https://hoangmaichung.com) hoặc gọi tới số điện thoại CSKH 1900.23.23.16 trong khung thời gian từ 8h30-22h00 hàng ngày nhé.</t>
+          <t>Vâng ạ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>utter_invest_customer_service</t>
+          <t>utter_confirm</t>
         </is>
       </c>
     </row>
@@ -1849,12 +3116,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bạn có thể để lại email hoặc số điện thoại, mình sẽ nhờ bộ phận chăm sóc khách hàng liên hệ trực tiếp để hỗ trợ bạn.</t>
+          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>utter_suggest_get_info</t>
+          <t>utter_anything_else</t>
         </is>
       </c>
     </row>
@@ -1877,52 +3144,10 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vâng ạ</t>
+          <t>Rất vui khi được phục vụ bạn</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>utter_confirm</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>utter_anything_else</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>thôi không cần đâu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>deny</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
         <is>
           <t>utter_thank</t>
         </is>
@@ -1980,7 +3205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,18 +3238,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tôi có nhà ở Sơn Tây muốn đăng bán thì làm thế nào</t>
+          <t>ê cho hỏi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>how_create_new_post</t>
+          <t>greet</t>
         </is>
       </c>
     </row>
@@ -2033,12 +3258,12 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Để đăng tin, trước tiên bạn cần chuẩn bị nội dung tin đăng, hình ảnh hoặc</t>
+          <t>Xin chào, mình là MeeyChatBot. Mình có thể giúp gì cho bạn ạ?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>utter_prepare_before_create_post</t>
+          <t>action_greet</t>
         </is>
       </c>
     </row>
@@ -2046,13 +3271,13 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Đợi tôi chút</t>
+          <t>giá gói vip 3 như nào</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>wait_a_minute</t>
+          <t>fee_of_vip_post</t>
         </is>
       </c>
     </row>
@@ -2061,12 +3286,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dạ vâng ạ</t>
+          <t>Dạ giá gói vip 3 hiện tại là 50k/ngày ạ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>utter_confirm</t>
+          <t>action_fee_of_vip_post</t>
         </is>
       </c>
     </row>
@@ -2074,13 +3299,13 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tôi chuẩn bị xong rồi, giờ sao nữa</t>
+          <t>đắt thế</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>request_more</t>
+          <t>user_feel_expensive</t>
         </is>
       </c>
     </row>
@@ -2089,26 +3314,30 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Để đăng bài, bạn truy cập vào website meeyland.com, tại góc trên cùng bên phải màn hình trang chủ, chọn nút chức năng “Đăng bài” và thực hiện theo các bước sau: Bước 1: Lựa chọn mục đích đăng bài. Sau khi chọn được mục đích đăng bài: Nếu đã đăng nhập vào tài khoản, thực hiện theo bước tiếp theo Nếu chưa có tài khoản, đăng tin vãng lai, cửa sổ sẽ yêu cầu lựa chọn đối tượng đăng bài. Bước 2: Nhập thông tin Bất động sản cần giao dịch tại màn hình “Đăng bài” Nhập đầy đủ các trường thông tin tại cột bên trái màn hình: bao gồm trường ""vị trí"", trường ""thông tin Bất động sản"", trường ""thông tin khác Tiêu đề: súc tích và đầy đủ thông tin, tối thiểu 6 ký tự, tối đa 100 ký tự Nội dung mô tả: giới hạn tối đa 5000 ký tự và không giới hạn ký tự tối thiểu. Thông tin liên hệ: bạn phải điền đầy đủ thông tin liên hệ để khách hàng liên lạc khi có nhu cầu. Tìm kiếm theo vị trí: Bạn nhập địa chỉ Bất động sản trong tin đăng, chọn theo gợi ý trong thanh tìm kiếm đưa ra, vị trí Bất động sản bạn đăng sẽ hiển thị trên bản đồ. Bước 3: Hoàn tất đăng bài. Bạn có thể lưu nháp, xem trước bài đăng hoặc hoàn tất quá trình đăng bài bằng cách nhấp vào nút "Đăng bài" ở cuối màn hình.</t>
+          <t>So với lợi ích mang lại thì mình thấy giá này hoàn toàn phù hợp đó ạ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>utter_how_create_new_post</t>
+          <t>utter_user_feel_expensive</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>oke, cảm ơn nhé</t>
+          <t>gói tin vip là cái gì vậy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>fee_of_vip_post</t>
         </is>
       </c>
     </row>
@@ -2117,30 +3346,27 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
+          <t>Tin Vip: là các tin đứng đầu trong danh sách tin đăng trên website, theo thứ tự Tin Vip 1 =&gt; Tin Vip 2 =&gt; Tin Vip 3. Tin Vip được thiết kế với tiêu đề chữ in hoa và màu sắc bắt mắt (tùy theo từng loại tin Vip), giúp nổi bật bài đăng, từ đó, giúp bài đăng của bạn thu hút người xem và tăng hiệu quả giao dịch hơn.
+ Tin thường: là tin có tiêu đề chữ thường màu đen, đứng dưới các tin vip. Tin thường có ưu điểm là đăng tin miễn phí tuy nhiên bài đăng của bạn sẽ không được nổi bật lên trên và khó tiếp cận với người xem hơn tin Vip</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>utter_thank</t>
+          <t>action_fee_of_vip_post</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tôi có nhà ở Sơn Tây muốn đăng bán thì làm thế nào</t>
+          <t>thế giá có đắt không</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>how_create_new_post</t>
+          <t>user_ask_price</t>
         </is>
       </c>
     </row>
@@ -2149,26 +3375,30 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Để đăng tin, trước tiên bạn cần chuẩn bị nội dung tin đăng, hình ảnh hoặc</t>
+          <t>Hiện tại MeeyLand đăng có .....</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>utter_prepare_before_create_post</t>
+          <t>action_fee_of_vip_post</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tôi có rồi</t>
+          <t>up là cái vẹo gì thế</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>affirm</t>
+          <t>what_is_up_post</t>
         </is>
       </c>
     </row>
@@ -2177,12 +3407,14 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Để đăng bài, bạn truy cập vào website meeyland.com, tại góc trên cùng bên phải màn hình trang chủ, chọn nút chức năng “Đăng bài” và thực hiện theo các bước sau: Bước 1: Lựa chọn mục đích đăng bài. Sau khi chọn được mục đích đăng bài: Nếu đã đăng nhập vào tài khoản, thực hiện theo bước tiếp theo Nếu chưa có tài khoản, đăng tin vãng lai, cửa sổ sẽ yêu cầu lựa chọn đối tượng đăng bài. Bước 2: Nhập thông tin Bất động sản cần giao dịch tại màn hình “Đăng bài” Nhập đầy đủ các trường thông tin tại cột bên trái màn hình: bao gồm trường ""vị trí"", trường ""thông tin Bất động sản"", trường ""thông tin khác Tiêu đề: súc tích và đầy đủ thông tin, tối thiểu 6 ký tự, tối đa 100 ký tự Nội dung mô tả: giới hạn tối đa 5000 ký tự và không giới hạn ký tự tối thiểu. Thông tin liên hệ: bạn phải điền đầy đủ thông tin liên hệ để khách hàng liên lạc khi có nhu cầu. Tìm kiếm theo vị trí: Bạn nhập địa chỉ Bất động sản trong tin đăng, chọn theo gợi ý trong thanh tìm kiếm đưa ra, vị trí Bất động sản bạn đăng sẽ hiển thị trên bản đồ. Bước 3: Hoàn tất đăng bài. Bạn có thể lưu nháp, xem trước bài đăng hoặc hoàn tất quá trình đăng bài bằng cách nhấp vào nút "Đăng bài" ở cuối màn hình.</t>
+          <t>"Là tin đăng đang hiển thị của khách hàng được đẩy lên vị trí đầu tiên trong gói đăng tin đó ngay tại thời điểm up tin. 
+Up tin giúp cho tin rao của khách hàng tiếp cận được với nhiều người quan tâm và có nhu cầu về 
+Bất động sản, giúp giao dịch được nhanh chóng hơn."</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>utter_how_create_new_post</t>
+          <t>utter_what_is_up_post</t>
         </is>
       </c>
     </row>
@@ -2190,13 +3422,13 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>thank nhé</t>
+          <t>thế có đắt ko</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>user_ask_price</t>
         </is>
       </c>
     </row>
@@ -2205,30 +3437,27 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
+          <t>Hiện tại Meey Land có áp dụng phí cho Up tin, bạn có thể xem bảng giá Up tin tại (copy đường link dẫn tới mục Báo giá)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>utter_thank</t>
+          <t xml:space="preserve">utter_fee_of_up_post
+</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tối có nhà ở Tây sơn muốn bán thì làm thế nào</t>
+          <t>cảm ơn nhé</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>how_create_new_post</t>
+          <t>thank</t>
         </is>
       </c>
     </row>
@@ -2237,26 +3466,30 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Để đăng tin, trước tiên bạn cần chuẩn bị nội dung tin đăng, hình ảnh hoặc</t>
+          <t>Rất vui khi được phục vụ bạn :)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>utter_prepare_before_create_post</t>
+          <t>utter_thank</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mình có rồi, làm sao nữa</t>
+          <t>Bên mình đăng được video đi kèm đúng không admin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>affirm</t>
+          <t>post_video_complaint</t>
         </is>
       </c>
     </row>
@@ -2264,363 +3497,6 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>Để đăng bài, bạn truy cập vào website meeyland.com, tại góc trên cùng bên phải màn hình trang chủ, chọn nút chức năng “Đăng bài” và thực hiện theo các bước sau: Bước 1: Lựa chọn mục đích đăng bài. Sau khi chọn được mục đích đăng bài: Nếu đã đăng nhập vào tài khoản, thực hiện theo bước tiếp theo Nếu chưa có tài khoản, đăng tin vãng lai, cửa sổ sẽ yêu cầu lựa chọn đối tượng đăng bài. Bước 2: Nhập thông tin Bất động sản cần giao dịch tại màn hình “Đăng bài” Nhập đầy đủ các trường thông tin tại cột bên trái màn hình: bao gồm trường ""vị trí"", trường ""thông tin Bất động sản"", trường ""thông tin khác Tiêu đề: súc tích và đầy đủ thông tin, tối thiểu 6 ký tự, tối đa 100 ký tự Nội dung mô tả: giới hạn tối đa 5000 ký tự và không giới hạn ký tự tối thiểu. Thông tin liên hệ: bạn phải điền đầy đủ thông tin liên hệ để khách hàng liên lạc khi có nhu cầu. Tìm kiếm theo vị trí: Bạn nhập địa chỉ Bất động sản trong tin đăng, chọn theo gợi ý trong thanh tìm kiếm đưa ra, vị trí Bất động sản bạn đăng sẽ hiển thị trên bản đồ. Bước 3: Hoàn tất đăng bài. Bạn có thể lưu nháp, xem trước bài đăng hoặc hoàn tất quá trình đăng bài bằng cách nhấp vào nút "Đăng bài" ở cuối màn hình.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>utter_how_create_new_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>mình thấy gói tin vip, là cái gì thế</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>fee_of_vip_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Tin Vip: là các tin đứng đầu trong danh sách tin đăng trên website, theo thứ tự Tin Vip 1 =&gt; Tin Vip 2 =&gt; Tin Vip 3. Tin Vip được thiết kế với tiêu đề chữ in hoa và màu sắc bắt mắt (tùy theo từng loại tin Vip), giúp nổi bật bài đăng, từ đó, giúp bài đăng của bạn thu hút người xem và tăng hiệu quả giao dịch hơn.
- Tin thường: là tin có tiêu đề chữ thường màu đen, đứng dưới các tin vip. Tin thường có ưu điểm là đăng tin miễn phí tuy nhiên bài đăng của bạn sẽ không được nổi bật lên trên và khó tiếp cận với người xem hơn tin Vip</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>action_fee_of_vip_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>yeap</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>affirm</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>utter_anything_else</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>không nhé</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>deny</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>utter_thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ê cho hỏi</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Xin chào, mình là MeeyChatBot. Mình có thể giúp gì cho bạn ạ?</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>action_greet</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>giá gói vip 3 như nào</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>fee_of_vip_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Dạ giá gói vip 3 hiện tại là 50k/ngày ạ</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>action_fee_of_vip_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>đắt thế</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>user_feel_expensive</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>So với lợi ích mang lại thì mình thấy giá này hoàn toàn phù hợp đó ạ</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>utter_user_feel_expensive</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>gói tin vip là cái gì vậy</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>fee_of_vip_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Tin Vip: là các tin đứng đầu trong danh sách tin đăng trên website, theo thứ tự Tin Vip 1 =&gt; Tin Vip 2 =&gt; Tin Vip 3. Tin Vip được thiết kế với tiêu đề chữ in hoa và màu sắc bắt mắt (tùy theo từng loại tin Vip), giúp nổi bật bài đăng, từ đó, giúp bài đăng của bạn thu hút người xem và tăng hiệu quả giao dịch hơn.
- Tin thường: là tin có tiêu đề chữ thường màu đen, đứng dưới các tin vip. Tin thường có ưu điểm là đăng tin miễn phí tuy nhiên bài đăng của bạn sẽ không được nổi bật lên trên và khó tiếp cận với người xem hơn tin Vip</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>action_fee_of_vip_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>thế giá có đắt không</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>user_ask_price</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Hiện tại MeeyLand đăng có .....</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>action_fee_of_vip_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>up là cái vẹo gì thế</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>what_is_up_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>"Là tin đăng đang hiển thị của khách hàng được đẩy lên vị trí đầu tiên trong gói đăng tin đó ngay tại thời điểm up tin. 
-Up tin giúp cho tin rao của khách hàng tiếp cận được với nhiều người quan tâm và có nhu cầu về 
-Bất động sản, giúp giao dịch được nhanh chóng hơn."</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>utter_what_is_up_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>thế có đắt ko</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>user_ask_price</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Hiện tại Meey Land có áp dụng phí cho Up tin, bạn có thể xem bảng giá Up tin tại (copy đường link dẫn tới mục Báo giá)</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">utter_fee_of_up_post
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>cảm ơn nhé</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Rất vui khi được phục vụ bạn :)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>utter_thank</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Bên mình đăng được video đi kèm đúng không admin</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>post_video_complaint</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
         <is>
           <t>1. Hiện tại MeeyLand chỉ hỗ trợ link video với đường dẫn từ youtube.com. Với các đường dẫn link video khác, MeeyLand không khuyến khích  và hiện tại không hỗ trợ, do đường dẫn không đảm bảo chất lượng, không ổn định, có thể dính virus và có thể phát sinh lỗi do trang gốc của link video .
 2. Trường hợp bạn đã gắn link nguồn từ Youtube nhưng vẫn không hiển thị, bạn vui lòng liên hệ MeeyLand để được hỗ trợ:
@@ -2629,237 +3505,237 @@
  + Chat với "Chăm sóc khách hàng" trên website meeyland.com</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>utter_post_video_complaint</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
         <is>
           <t>thế lâu không thì được duyệt</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>approval_time</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>- Nếu bạn là người dùng vãng lai, bài đăng của bạn sẽ được kiểm duyệt trong vòng 24h
 - Nếu bạn là người dùng đã đăng ký tài khoản trên MeeyLand, bài đăng của bạn sẽ được đăng ngay lập tức sau khi bạn hoàn thiện đăng bài và thanh toán chi phí cho bài đăng (nếu có).</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>utter_approval_time</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
         <is>
           <t>yeapp</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>affirm</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>utter_anything_else</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
         <is>
           <t>không nhé</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>deny</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Dạ vâng ạ</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>utter_confirm</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Rất vui được phục vụ bạn</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>utter_thank</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>đăng ảnh toàn vị vỡ thôi ad ạ</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>post_image_complaint</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
         <is>
           <t>- Trường hợp không đăng được ảnh, bạn vui lòng kiểm tra lại một trong các lý do sau: 
 + Ảnh đăng vượt quá kích thước cho phép 4mb cho mỗi ảnh
 + Số lượng ảnh đăng đã vượt quá số lượng cho phép của mỗi gói tin</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>utter_post_image_complaint</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
         <is>
           <t>yeap</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>affirm</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>utter_anything_else</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
         <is>
           <t>không nhé</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>deny</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Dạ vâng ạ</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>utter_confirm</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Rất vui được phục vụ bạn</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>utter_thank</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>sao admin lại xóa bài của tôi</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>why_reject_post</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Bài đăng của bạn không được đăng bán vì lí do vi phạm các lí do sau: 
 + Bài đăng không có tiêu đề
@@ -2870,132 +3746,132 @@
 </t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>utter_why_reject_post_1</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
         <is>
           <t>2. Nếu bạn là người dùng đã đăng ký tài khoản trên MeeyLand, bài đăng của bạn không vi phạm quy đinh sẽ được đăng ngay lập tức sau khi bạn hoàn thiện đăng bài và thanh toán chi phí cho bài đăng (nếu có).</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>utter_why_reject_post_2</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
         <is>
           <t>3. Lý do không được duyệt bài/bị hạ bài: Trường hợp bài đăng của bạn không được duyệt, chúng tôi sẽ gửi thông báo cho bạn biết lý do không được duyệt bài/bị hạ bài.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>utter_why_reject_post_3</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
         <is>
           <t>okee</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>affirm</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>utter_anything_else</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
         <is>
           <t>không nhé</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>deny</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Dạ vâng ạ</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>utter_confirm</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Rất vui được phục vụ bạn</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>utter_thank</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>mình đăng bán nhiều nhà trong 1 tin thì có vi phạm gì không vậy</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>multi_content_in_a_post</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
         <is>
           <t>1. Hiện tại MeeyLand không khuyến khích KH đăng bán nhiều BĐS trong cùng một bài đăng, đặc biệt là các BĐS khác dự án, khác địa chỉ. 
 Do việc đăng bài như thế khiến cho người tìm kiếm khó tiếp cận và khó khăn trong việc tìm kiếm thông tin. Tuy nhiên, bạn cũng có thể đăng bán nhiều BĐS trong cùng 1 bài đăng trong các trường hợp sau:
@@ -3004,136 +3880,136 @@
 2. Đối với các bài đăng có nhiều BĐS được rao bán không cùng một dự án hoặc không cùng một địa chỉ sẽ được nhân viên của MeeyLand kiểm duyệt lại và hạ bài mà không cần thông báo trước với khách hàng.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>utter_multi_content_in_a_post</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Oke cảm ơn nhé</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>thank</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Dạ vâng ạ</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>utter_confirm</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Rất vui được phục vụ bạn</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>utter_thank</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>ad ơi, đăng nhiều tin được không</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>limit_of_post_number</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">Bạn sẽ được đăng tin Không giới hạn nếu tài khoản của bạn vẫn có quyền đăng tin. </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>utter_limit_of_post_number</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
         <is>
           <t>cảm ơn nhé</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>thank</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Rất vui khi được phục vụ bạn :)</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>utter_thank</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>sao bài đăng bị từ chối</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>why_reject_post</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Bài đăng của bạn không được đăng bán vì lí do vi phạm các lí do sau: 
 + Bài đăng không có tiêu đề
@@ -3144,132 +4020,132 @@
 </t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>utter_why_reject_post_1</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
         <is>
           <t>2. Nếu bạn là người dùng đã đăng ký tài khoản trên MeeyLand, bài đăng của bạn không vi phạm quy đinh sẽ được đăng ngay lập tức sau khi bạn hoàn thiện đăng bài và thanh toán chi phí cho bài đăng (nếu có).</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>utter_why_reject_post_2</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
         <is>
           <t>3. Lý do không được duyệt bài/bị hạ bài: Trường hợp bài đăng của bạn không được duyệt, chúng tôi sẽ gửi thông báo cho bạn biết lý do không được duyệt bài/bị hạ bài.</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>utter_why_reject_post_3</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>đăng tin như nào</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>how_create_new_post</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
         <is>
           <t>các bước abc</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>utter_how_create_new_post</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
         <is>
           <t>chi tiết hơn đi</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>request_more</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
         <is>
           <t>chi tiết như này</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>utter_how_create_new_post_details</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
         <is>
           <t>chi tiết hơn nữa đi</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>request_more</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>utter_out_of_bot_ability</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
 • Gọi đến tổng đài theo số hotline 08.69.09.29.29
@@ -3277,183 +4153,183 @@
 • Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>utter_how_contact_customer_service</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>đăng tin như nào</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
         <is>
           <t>how_create_new_post</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
         <is>
           <t>các bước abc</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>utter_how_create_new_post</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
         <is>
           <t>affirm</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
         <is>
           <t>vâng ạ</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>utter_confirm</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
         <is>
           <t>bot giúp gì thêm cho anh chị</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>utter_anything_else</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>đăng tin như nào</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
         <is>
           <t>how_create_new_post</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
         <is>
           <t>các bước abc</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>utter_how_create_new_post</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
         <is>
           <t>chi tiết hơn đi</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
         <is>
           <t>request_more</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
         <is>
           <t>chi tiết như này</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>utter_how_create_new_post_details</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
         <is>
           <t>affirm</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
         <is>
           <t>vâng ạ</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>utter_confirm</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
         <is>
           <t>bot giúp gì thêm cho anh chị</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>utter_anything_else</t>
         </is>
@@ -4817,4 +5693,165 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rasa-Stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nhiều tiền quá, làm sao tiêu hết nhỉ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>chitchat</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bạn tham gia vào đội ngũ nhà đầu tư MeeyLand đi ạ!</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>respond_chitchat</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tham gia như thế nào</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>request_more</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hiện tại, MeeyBot chưa hỗ trợ các vấn đề liên quan đến đầu tư vào MeeyLand, bạn vui lòng liên hệ bộ phận hỗ trợ trên trang web [hoangmaichung.com](https://hoangmaichung.com) hoặc gọi tới số điện thoại CSKH 1900.23.23.16 trong khung thời gian từ 8h30-22h00 hàng ngày nhé.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>utter_invest_customer_service</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nhiều tiền quá, làm sao tiêu hết nhỉ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chitchat</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bạn tham gia vào đội ngũ nhà đầu tư MeeyLand đi ạ!</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>respond_chitchat</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tham gia đầu tư như thế nào</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>how_invest_to_meeyland</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hiện tại, MeeyBot chưa hỗ trợ các vấn đề liên quan đến đầu tư vào MeeyLand, bạn vui lòng liên hệ bộ phận hỗ trợ trên trang web [hoangmaichung.com](https://hoangmaichung.com) hoặc gọi tới số điện thoại CSKH 1900.23.23.16 trong khung thời gian từ 8h30-22h00 hàng ngày nhé.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>utter_invest_customer_service</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/raw_data/chatbot_data_core.xlsx
+++ b/raw_data/chatbot_data_core.xlsx
@@ -3093,7 +3093,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>deny</t>
+          <t>deny OR canthelp</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>deny</t>
+          <t>deny OR canthelp</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>request_more</t>
+          <t>request_more OR user_need_help</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5275,7 +5275,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>bot_need_learning</t>
+          <t>bot_need_learning OR react_negative</t>
         </is>
       </c>
     </row>
@@ -5290,70 +5290,6 @@
       <c r="D31" t="inlineStr">
         <is>
           <t>utter_keep_learning</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>dốt lắm</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>react_negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>mình sẽ học hỏi thêm ạ</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>utter_keep_learning</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>giải thích rõ đi bot</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>request_more</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>mình là meeybot của meeyland, có thể giúp bạn các vấn đề xung quanh ....</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>utter_ask_whatspossible</t>
         </is>
       </c>
     </row>

--- a/raw_data/chatbot_data_core.xlsx
+++ b/raw_data/chatbot_data_core.xlsx
@@ -804,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,2052 +833,366 @@
           <t>Rasa-Stories</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tôi muốn hạ tin hoàn tiền</t>
+          <t>Tôi muốn hạ tin hoàn tiền</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>request_down_post</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>* request_down_post</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>- utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>- calculate_down_post_form</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>gói vip 3</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>- form{"name": "calculate_down_post_form"}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t xml:space="preserve">- form{"name": null} </t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Số ngày mua ban đầu là bao nhiêu?</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tối muốn hạ tin hoàn tiền</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>* request_down_post</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mình mua 15 ngày</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>- utter_bot_need_info_for_refund</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>- calculate_down_post_form</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>utter_ask_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>- form{"name":"calculate_down_post_form"}</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>mời dùng có 3 ngày thôi</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>- slot{"requested_slot":"source_post_package"}</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Thế thôi ko cần đâu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>* canthelp OR deny</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Số tiền bạn được hoàn trả là ...</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>action_calculate_down_post</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>- action_deactivate_form</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>cách tính chi tiết như nào thế</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>request_more</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>- form{"name":null}</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>utter_out_of_bot_ability</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>- slot{"requested_slot":null}</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>utter_how_contact_customer_service</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>- utter_confirm</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>tôi muốn hạ tin hoàn tiền</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>request_down_post</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>- utter_anything_else</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tôi muốn đổi gói tin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>* request_change_post_package</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>- utter_bot_need_info_for_change_source_package</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>thôi ko cần đâu</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>deny</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>- calculate_change_post_form</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Vâng ạ</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>utter_confirm</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>- form{"name": "calculate_change_post_form"}</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>utter_anything_else</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t xml:space="preserve">- form{"name": null} </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tôi muốn hạ tin hoàn tiền</t>
+          <t>Tôi muốn đổi gói tin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>request_down_post</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>* request_change_post_package</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>- utter_bot_need_info_for_change_source_package</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>- calculate_change_post_form</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>bot làm giúp luôn đi</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>request_more</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>- form{"name":"calculate_change_post_form"}</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>- slot{"requested_slot":"source_post_package"}</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Thế thôi ko cần đâu</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>* canthelp OR deny</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>hạ tin hoàn tiền như nào</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>request_down_post</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>- action_deactivate_form</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>- form{"name":null}</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>- slot{"requested_slot":null}</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>gói vip 3 nhé</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>- utter_confirm</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Bạn mua gói vip trong bao nhiêu ngày?</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>29 ngày</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Số ngày mua gói tin không hợp lệ. 
-Hiện tại MeeyLand chỉ cung cấp các gói tin 1 ngày, 7 ngày, 15 ngày, 30 ngày và 90 ngày.
-Bạn vui lòng cung cấp lại số ngày bạn đã mua gói tin nhé!</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>utter_request_valid_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>à 30 ngày</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>utter_ask_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>17 ngày rồi</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>action_calculate_down_post</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>action_calculate_down_post</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>cách tính chi tiết như nào thế</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>request_more</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>utter_out_of_bot_ability</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ để được hỗ trợ nâng cao:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>utter_how_contact_customer_service</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>hoàn tiền không khi tôi hạ tin</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>is_refund_after_putdown_post</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Chính sách của MeeyLand hiện tại cho phép hoàn tiền một phần/toàn bộ, tùy theo chính sách của MeeyLand từng thời kỳ bạn nhé!</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>utter_is_refund_after_putdown_post</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>gói vip 3</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Số ngày mua ban đầu là bao nhiêu?</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Mình mua 15 ngày</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Bạn đã sử dụng trong bao ngày rồi?</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>utter_ask_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>mời dùng có 3 ngày thôi</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>enter_data</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Số tiền bạn được hoàn trả là ...</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>action_calculate_down_post</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>cách tính chi tiết như nào thế</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>request_more</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>utter_out_of_bot_ability</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ để được hỗ trợ nâng cao:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>utter_how_contact_customer_service</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>hoàn tiền không khi tôi hạ tin</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>is_refund_after_putdown_post</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Chính sách của MeeyLand hiện tại cho phép hoàn tiền một phần/toàn bộ, tùy theo chính sách của MeeyLand từng thời kỳ bạn nhé!</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>utter_is_refund_after_putdown_post</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>thôi ko cần đâu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>deny</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Vâng ạ</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>utter_confirm</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Bạn có thắc mắc hay cần giúp đỡ gì nữa không ạ</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>utter_anything_else</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>hoàn tiền không khi tôi hạ tin</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>is_refund_after_putdown_post</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Chính sách của MeeyLand hiện tại cho phép hoàn tiền một phần/toàn bộ, tùy theo chính sách của MeeyLand từng thời kỳ bạn nhé!</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>utter_is_refund_after_putdown_post</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>bot làm giúp luôn đi</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>request_more</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng gói vip nào</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Hạn tin hoàn tiền</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>request_down_post</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Bạn dùng gói vip nào</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>vip 3 nhé</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>enter_data{"post_package":"vip 3"}</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>slot{"post_package":"vip 3"}</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>set buy slot</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>slot{"source_post_package":"vip 3"}</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>slot{"post_package":"None"}</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Số ngày mua ban đầu là bao nhiêu</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>30 ngày nhé</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>enter_data{"duration":"30 ngày"}</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>slot{"duration":"30 ngày"}</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>action set</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>slot{"buy_vip_duration":"30 ngày"}</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>slot{"duration":"None"}</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Bạn đã dùng trong bao lâu</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>utter_ask_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>9 ngày rồi</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>enter_data{"duration":"9 ngày"}</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>slot{"duration":"9 ngày"}</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>action set</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>slot{"used_vip_duration":"9 ngày"}</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>slot{"duration":"None"}</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>action utter</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>action_calculate_down_post</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>cách tính chi tiết như nào thế</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>request_more</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>utter_out_of_bot_ability</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ để được hỗ trợ nâng cao:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>utter_how_contact_customer_service</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>hạ tin hoàn tiền</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>request_down_post</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>* request_down_post</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ bộ phận chăm sóc khách hàng để được hỗ trợ hạ tin và hoàn tiền về tài khoản nhé.
-Bot chỉ giúp bạn tính toán số tiền được hoàn trả khi hạ tin thôi ạ! Bạn vui lòng cung cấp một số thông tin.</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>- utter_bot_need_info_for_refund</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Bạn đang dùng vip mấy</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>utter_ask_source_post_package</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>- utter_ask_source_post_package</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>gói vip 1 nhé</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>enter_data{"post_package":"vip 1"}</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>* enter_data{"post_package":"vip 3"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>slot{"post_package":"vip 1"}</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>- slot{"post_package":"vip 3"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>set_post_package</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>action_set_source_post_package</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>- action_set_source_post_package</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>slot{"source_post_package":"vip 1"}</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>- slot{"source_post_package":"vip 3"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>slot{"post_package":"None"}</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>- slot{"post_package":"None"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Số ngày ban đầu bạn đã mua?</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>- utter_ask_buy_vip_duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>29 ngày</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>enter_data{"duration":"29 ngày"}</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>* enter_data{"duration":"29 ngày"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>slot{"duration":"29 ngày"}</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>- slot{"duration":"29 ngày"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>set buy post_package</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>- action_set_buy_vip_duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Không hợp lệ, nhập lại</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>utter_request_valid_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>- utter_request_valid_buy_vip_duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>à 30 ngày</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>enter_data{"duration":"30 ngày"}</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>* enter_data{"duration":"30 ngày"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>sloot</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>slot{"duration":"30 ngày"}</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>- slot{"duration":"30 ngày"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>set buy post_package</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>action_set_buy_vip_duration</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>- action_set_used_vip_duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>slot{"buy_vip_duration":"30 ngày"}</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>- slot{"used_vip_duration":"30 ngày"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>slot{"duration":"None"}</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>- slot{"duration":"None"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Bạn đã dùng được bao nhiêu ngày</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>utter_ask_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>- utter_ask_used_vip_duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>9 ngày rồi</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>enter_data{"duration":"9 ngày"}</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>slot{"duration":"9 ngày"}</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>action set used vip post</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>action_set_used_vip_duration</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>slot{"used_vip_duration":"9 ngày"}</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>slot{"duration":"None"}</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>action utter</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>action_calculate_down_post</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>cách tính chi tiết như nào thế</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>request_more</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Xin lỗi, bot chỉ hỗ trợ bạn được như vậy thôi ạ!</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>utter_out_of_bot_ability</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Bạn liên hệ để được hỗ trợ nâng cao:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
-• Chat với "Chăm sóc khách hàng"</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>utter_how_contact_customer_service</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+          <t>- utter_anything_else</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/chatbot_data_core.xlsx
+++ b/raw_data/chatbot_data_core.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tài khoản" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hạ tin-Hoàn tiền" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meey Invest" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nạp tiền" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Đăng bài" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Câu hỏi khác" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_of_scope" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chitchat" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Tài khoản" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hạ tin-Hoàn tiền" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Meey Invest" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nạp tiền" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đăng bài" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Câu hỏi khác" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="General" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="out_of_scope" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="chitchat" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -52,15 +52,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -516,9 +516,9 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
 • Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
@@ -579,9 +579,9 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
 • Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
@@ -642,9 +642,9 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
 • Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
@@ -794,7 +794,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -804,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,13 +1022,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tôi muốn đổi gói tin</t>
+          <t>Tôi muốn hạ tin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>* request_change_post_package</t>
+          <t>* request_down_post</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>- utter_bot_need_info_for_change_source_package</t>
+          <t>- utter_bot_need_info_for_refund</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>- calculate_change_post_form</t>
+          <t>- calculate_down_post_form</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>- form{"name": "calculate_change_post_form"}</t>
+          <t>- form{"name":"calculate_down_post_form"}</t>
         </is>
       </c>
     </row>
@@ -1068,25 +1068,21 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">- form{"name": null} </t>
+          <t>- slot{"requested_slot":"source_post_package"}</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tôi muốn đổi gói tin</t>
+          <t>vip2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>* request_change_post_package</t>
+          <t>* enter_data{"post_package":"VIP 2"}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1092,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>- utter_bot_need_info_for_change_source_package</t>
+          <t>- slot{"post_package":"VIP 2"}</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1102,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>- calculate_change_post_form</t>
+          <t>- calculate_down_post_form</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1112,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>- form{"name":"calculate_change_post_form"}</t>
+          <t>- slot{"source_post_package":"VIP 2"}</t>
         </is>
       </c>
     </row>
@@ -1126,31 +1122,31 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>- slot{"requested_slot":"source_post_package"}</t>
+          <t>- slot{"post_package":null}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Thế thôi ko cần đâu</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>* canthelp OR deny</t>
+          <t>- slot{"requested_slot":"buy_vip_duration"}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Thôi ko cần nữa đâu</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>- action_deactivate_form</t>
+          <t>* canthelp OR deny</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1156,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>- form{"name":null}</t>
+          <t>- action_deactivate_form</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1166,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>- slot{"requested_slot":null}</t>
+          <t>- form{"name":null}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1176,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>- utter_confirm</t>
+          <t>- slot{"requested_slot":null}</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1186,202 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
+          <t>- utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>- utter_anything_else</t>
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tôi muốn đổi gói tin</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>* request_change_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>- utter_bot_need_info_for_change_source_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>- calculate_change_post_form</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>- form{"name": "calculate_change_post_form"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- form{"name": null} </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tôi muốn đổi gói tin</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>* request_change_post_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>- utter_bot_need_info_for_change_source_package</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>- calculate_change_post_form</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>- form{"name":"calculate_change_post_form"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>- slot{"requested_slot":"source_post_package"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thế thôi ko cần đâu</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>* canthelp OR deny</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>- action_deactivate_form</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>- form{"name":null}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>- slot{"requested_slot":null}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>- utter_confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>- utter_anything_else</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1468,7 +1654,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1509,7 +1695,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1812,10 +1998,10 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1. Hiện tại MeeyLand chỉ hỗ trợ link video với đường dẫn từ youtube.com. Với các đường dẫn link video khác, MeeyLand không khuyến khích  và hiện tại không hỗ trợ, do đường dẫn không đảm bảo chất lượng, không ổn định, có thể dính virus và có thể phát sinh lỗi do trang gốc của link video .
-2. Trường hợp bạn đã gắn link nguồn từ Youtube nhưng vẫn không hiển thị, bạn vui lòng liên hệ MeeyLand để được hỗ trợ:
- + Gọi đến tổng đài theo số hotline 08.69.09.29.29
- + Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+          <t>1. Hiện tại MeeyLand chỉ hỗ trợ link video với đường dẫn từ youtube.com. Với các đường dẫn link video khác, MeeyLand không khuyến khích  và hiện tại không hỗ trợ, do đường dẫn không đảm bảo chất lượng, không ổn định, có thể dính virus và có thể phát sinh lỗi do trang gốc của link video .
+2. Trường hợp bạn đã gắn link nguồn từ Youtube nhưng vẫn không hiển thị, bạn vui lòng liên hệ MeeyLand để được hỗ trợ:
+ + Gọi đến tổng đài theo số hotline 08.69.09.29.29
+ + Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
  + Chat với "Chăm sóc khách hàng" trên website meeyland.com</t>
         </is>
       </c>
@@ -2461,9 +2647,9 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
 • Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
@@ -2650,7 +2836,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2755,9 +2941,9 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
-• Gọi đến tổng đài theo số hotline 08.69.09.29.29
-• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
+          <t>Trong trường hợp cần hỗ trợ, vui lòng liên hệ với bộ phận Chăm sóc khách hàng theo các kênh sau:
+• Gọi đến tổng đài theo số hotline 08.69.09.29.29
+• Gửi mail yêu cầu hỗ trợ tới địa chỉ “contact@meeyland.com”
 • Chat với "Chăm sóc khách hàng"</t>
         </is>
       </c>
@@ -2924,13 +3110,13 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
-• Thông tin chung về MeeyLand
-• Đăng ký tài khoản tại meeyland.com
-• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
-• Quản lý tin đăng
-• Cách nạp tiền vào tài khoản ví Meey
-• Thông tin và cách mua các gói tin, up tin
+          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
+• Thông tin chung về MeeyLand
+• Đăng ký tài khoản tại meeyland.com
+• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
+• Quản lý tin đăng
+• Cách nạp tiền vào tài khoản ví Meey
+• Thông tin và cách mua các gói tin, up tin
 Rất vui có thể giải đáp cho bạn các câu hỏi về các vấn đề trên.</t>
         </is>
       </c>
@@ -3005,13 +3191,13 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
-• Thông tin chung về MeeyLand
-• Đăng ký tài khoản tại meeyland.com
-• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
-• Quản lý tin đăng
-• Cách nạp tiền vào tài khoản ví Meey
-• Thông tin và cách mua các gói tin, up tin
+          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
+• Thông tin chung về MeeyLand
+• Đăng ký tài khoản tại meeyland.com
+• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
+• Quản lý tin đăng
+• Cách nạp tiền vào tài khoản ví Meey
+• Thông tin và cách mua các gói tin, up tin
 Rất vui có thể giải đáp cho bạn các câu hỏi về các vấn đề trên.</t>
         </is>
       </c>
@@ -3114,13 +3300,13 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
-• Thông tin chung về MeeyLand
-• Đăng ký tài khoản tại meeyland.com
-• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
-• Quản lý tin đăng
-• Cách nạp tiền vào tài khoản ví Meey
-• Thông tin và cách mua các gói tin, up tin
+          <t>Mình là MeeyBot của MeeyLand, hỗ trợ khách hàng về:
+• Thông tin chung về MeeyLand
+• Đăng ký tài khoản tại meeyland.com
+• Hướng dẫn đăng tin trên meeyland.com và app Meey Land.
+• Quản lý tin đăng
+• Cách nạp tiền vào tài khoản ví Meey
+• Thông tin và cách mua các gói tin, up tin
 Rất vui có thể giải đáp cho bạn các câu hỏi về các vấn đề trên.</t>
         </is>
       </c>
@@ -3131,7 +3317,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3608,7 +3794,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3941,7 +4127,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4102,6 +4288,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>